--- a/マトリックス_テンプレート.xlsx
+++ b/マトリックス_テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0dbc153196371d5/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\cre\Develop_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{D8A95073-851B-4BB6-98D1-9B012EB3D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFF4EC0-9860-41A2-A15C-D5170F3D3B60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C5CAF5-CCE7-4B42-8858-2F02E69B95A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E4926199-CD19-414B-81D5-2FCFFB720DE4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1" xr2:uid="{E4926199-CD19-414B-81D5-2FCFFB720DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="例1" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t>D</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +120,35 @@
   </si>
   <si>
     <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不合格</t>
+    <rPh sb="0" eb="3">
+      <t>フゴウカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テストなし</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再テスト</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｙ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -481,6 +500,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -499,13 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,50 +847,50 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="8.796875" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -893,9 +912,9 @@
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -906,7 +925,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -917,7 +936,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -928,7 +947,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -939,7 +958,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -950,7 +969,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -961,7 +980,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -972,7 +991,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -983,7 +1002,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -994,7 +1013,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1005,7 +1024,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1016,7 +1035,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1027,7 +1046,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1038,7 +1057,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1049,7 +1068,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -1060,7 +1079,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
@@ -1090,51 +1109,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41983BC2-A1AD-417F-8DE5-B6BEFC97EB33}">
   <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22" t="s">
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,64 +1177,92 @@
       <c r="H4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="10"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -1224,7 +1273,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
@@ -1235,7 +1284,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10"/>
@@ -1246,7 +1295,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
@@ -1257,7 +1306,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
@@ -1268,7 +1317,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
@@ -1279,7 +1328,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
@@ -1290,7 +1339,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
@@ -1301,7 +1350,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
@@ -1312,7 +1361,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
@@ -1323,7 +1372,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="11"/>
       <c r="C20" s="13"/>
@@ -1345,5 +1394,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>